--- a/Bin/db/files/HiCONiS Commissioning Report_HCR.xlsx
+++ b/Bin/db/files/HiCONiS Commissioning Report_HCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pjh\Dev\Lang\Delphi\Project\GSManage\Bin\db\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5C2C8-0AE0-4BDE-A204-32B4D5E72E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DF732-1C92-49CA-A3D4-CC0F2FF23767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13440" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,13 +692,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,93 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,11 +858,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,13 +1725,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>212913</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>549088</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2591,7 +2591,7 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -2627,20 +2627,20 @@
       <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
@@ -2658,41 +2658,41 @@
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -2708,29 +2708,29 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="H7" s="78" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="27"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
@@ -2738,14 +2738,14 @@
       <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="26"/>
       <c r="J9" s="27"/>
       <c r="P9" s="28"/>
@@ -2754,12 +2754,12 @@
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="26"/>
       <c r="J10" s="27"/>
       <c r="P10" s="28"/>
@@ -2768,83 +2768,83 @@
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="J11" s="24"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="46"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
       <c r="J17" s="13"/>
@@ -2854,12 +2854,12 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
       <c r="J18" s="13"/>
@@ -2867,14 +2867,14 @@
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="26"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
@@ -2883,12 +2883,12 @@
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="26"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -2900,14 +2900,14 @@
       <c r="V20" s="24"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="26"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
@@ -2919,12 +2919,12 @@
       <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="26"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
@@ -2945,112 +2945,112 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="68"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -3060,320 +3060,320 @@
       <c r="E31" s="13"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="72"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="23"/>
       <c r="K34" s="22"/>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="7"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="68"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="49"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="69"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="7"/>
       <c r="H41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="68"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="69"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="7"/>
       <c r="H47" s="19"/>
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="68"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="49"/>
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="69"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
@@ -3388,22 +3388,22 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
@@ -3413,13 +3413,13 @@
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="53" t="s">
+      <c r="H55" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="68"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
@@ -3429,11 +3429,11 @@
       <c r="E56" s="13"/>
       <c r="F56" s="12"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
@@ -3443,13 +3443,13 @@
       <c r="E57" s="13"/>
       <c r="F57" s="12"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="39"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="49"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
@@ -3459,34 +3459,41 @@
       <c r="E58" s="9"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="69"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B21:F22"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="J55:L56"/>
-    <mergeCell ref="J37:L38"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:L40"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="A25:F30"/>
+    <mergeCell ref="A33:F52"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J31:L32"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="B13:F14"/>
     <mergeCell ref="H57:I58"/>
     <mergeCell ref="J57:L58"/>
     <mergeCell ref="A32:F32"/>
@@ -3503,33 +3510,26 @@
     <mergeCell ref="H45:I46"/>
     <mergeCell ref="J45:L46"/>
     <mergeCell ref="H48:L48"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="B17:F18"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="A25:F30"/>
-    <mergeCell ref="A33:F52"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J31:L32"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="J55:L56"/>
+    <mergeCell ref="J37:L38"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="J39:L40"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="B21:F22"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
